--- a/inst/extdata/curtailment.xlsx
+++ b/inst/extdata/curtailment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0439ADA-E4F3-40EB-9970-0E3F712382C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C15C0-B676-4785-9EBA-475E2BEA4AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-01-07</t>
+    <t>2025-02-08</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO51"/>
+  <dimension ref="A1:BO52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
@@ -11073,6 +11073,209 @@
         <v>98.7</v>
       </c>
     </row>
+    <row r="52" spans="1:67">
+      <c r="A52" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B52" s="3">
+        <v>95.3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="G52" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="H52" s="3">
+        <v>91.9</v>
+      </c>
+      <c r="I52" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="J52" s="3">
+        <v>98.3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>94.1</v>
+      </c>
+      <c r="L52" s="3">
+        <v>97.3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="S52" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="T52" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="U52" s="3">
+        <v>99.7</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="X52" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>92.3</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>98.8</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>95.7</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>99.8</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>99.1</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>95.1</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>99.3</v>
+      </c>
+      <c r="AK52" s="3">
+        <v>94</v>
+      </c>
+      <c r="AL52" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>90.1</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="AO52" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="AP52" s="3">
+        <v>95.2</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="AR52" s="3">
+        <v>96.7</v>
+      </c>
+      <c r="AS52" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="AT52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AU52" s="3">
+        <v>99.8</v>
+      </c>
+      <c r="AV52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AW52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AX52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AY52" s="3">
+        <v>99.8</v>
+      </c>
+      <c r="AZ52" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="BA52" s="3">
+        <v>98.8</v>
+      </c>
+      <c r="BB52" s="3">
+        <v>100</v>
+      </c>
+      <c r="BC52" s="3">
+        <v>100</v>
+      </c>
+      <c r="BD52" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="BE52" s="3">
+        <v>89</v>
+      </c>
+      <c r="BF52" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="BG52" s="3">
+        <v>91.6</v>
+      </c>
+      <c r="BH52" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="BI52" s="3">
+        <v>91.4</v>
+      </c>
+      <c r="BJ52" s="3">
+        <v>57.3</v>
+      </c>
+      <c r="BK52" s="3">
+        <v>100</v>
+      </c>
+      <c r="BL52" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="BM52" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="BN52" s="3">
+        <v>98.1</v>
+      </c>
+      <c r="BO52" s="3">
+        <v>97.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/curtailment.xlsx
+++ b/inst/extdata/curtailment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C15C0-B676-4785-9EBA-475E2BEA4AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A3369A-A96E-41C8-964C-C968A1330AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2025-02-08</t>
+    <t>2025-03-04</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO52"/>
+  <dimension ref="A1:BO53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
@@ -11276,6 +11276,209 @@
         <v>97.6</v>
       </c>
     </row>
+    <row r="53" spans="1:67">
+      <c r="A53" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B53" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>93</v>
+      </c>
+      <c r="D53" s="3">
+        <v>94.9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>89.6</v>
+      </c>
+      <c r="F53" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="G53" s="3">
+        <v>93.6</v>
+      </c>
+      <c r="H53" s="3">
+        <v>91.9</v>
+      </c>
+      <c r="I53" s="3">
+        <v>94.6</v>
+      </c>
+      <c r="J53" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="K53" s="3">
+        <v>93.1</v>
+      </c>
+      <c r="L53" s="3">
+        <v>96.4</v>
+      </c>
+      <c r="M53" s="3">
+        <v>100</v>
+      </c>
+      <c r="N53" s="3">
+        <v>97.8</v>
+      </c>
+      <c r="O53" s="3">
+        <v>100</v>
+      </c>
+      <c r="P53" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>100</v>
+      </c>
+      <c r="R53" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="S53" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="T53" s="3">
+        <v>98.6</v>
+      </c>
+      <c r="U53" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="V53" s="3">
+        <v>100</v>
+      </c>
+      <c r="W53" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="X53" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>94.6</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>99.8</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>96.8</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>94.4</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="AK53" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="AL53" s="3">
+        <v>90.4</v>
+      </c>
+      <c r="AM53" s="3">
+        <v>98</v>
+      </c>
+      <c r="AN53" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="AO53" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="AP53" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="AQ53" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="AR53" s="3">
+        <v>99.1</v>
+      </c>
+      <c r="AS53" s="3">
+        <v>96.6</v>
+      </c>
+      <c r="AT53" s="3">
+        <v>100</v>
+      </c>
+      <c r="AU53" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="AV53" s="3">
+        <v>100</v>
+      </c>
+      <c r="AW53" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="AX53" s="3">
+        <v>100</v>
+      </c>
+      <c r="AY53" s="3">
+        <v>97.1</v>
+      </c>
+      <c r="AZ53" s="3">
+        <v>98.4</v>
+      </c>
+      <c r="BA53" s="3">
+        <v>92.8</v>
+      </c>
+      <c r="BB53" s="3">
+        <v>100</v>
+      </c>
+      <c r="BC53" s="3">
+        <v>100</v>
+      </c>
+      <c r="BD53" s="3">
+        <v>97.9</v>
+      </c>
+      <c r="BE53" s="3">
+        <v>88.9</v>
+      </c>
+      <c r="BF53" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="BG53" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="BH53" s="3">
+        <v>90.6</v>
+      </c>
+      <c r="BI53" s="3">
+        <v>89.2</v>
+      </c>
+      <c r="BJ53" s="3">
+        <v>66</v>
+      </c>
+      <c r="BK53" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="BL53" s="3">
+        <v>95.2</v>
+      </c>
+      <c r="BM53" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="BN53" s="3">
+        <v>96.2</v>
+      </c>
+      <c r="BO53" s="3">
+        <v>96.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
